--- a/artfynd/A 37654-2023.xlsx
+++ b/artfynd/A 37654-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112390254</v>
+        <v>112389891</v>
       </c>
       <c r="B2" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>561842</v>
+        <v>561810</v>
       </c>
       <c r="R2" t="n">
-        <v>6690941</v>
+        <v>6690949</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112390234</v>
+        <v>112390327</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>561861</v>
+        <v>561884</v>
       </c>
       <c r="R3" t="n">
-        <v>6690936</v>
+        <v>6691037</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112389891</v>
+        <v>112390174</v>
       </c>
       <c r="B4" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>561810</v>
+        <v>561855</v>
       </c>
       <c r="R4" t="n">
-        <v>6690949</v>
+        <v>6690952</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112389777</v>
+        <v>112389445</v>
       </c>
       <c r="B5" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>561812</v>
+        <v>561871</v>
       </c>
       <c r="R5" t="n">
-        <v>6690979</v>
+        <v>6691026</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112389960</v>
+        <v>112389734</v>
       </c>
       <c r="B6" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>561848</v>
+        <v>561844</v>
       </c>
       <c r="R6" t="n">
-        <v>6690913</v>
+        <v>6690980</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112389445</v>
+        <v>112389341</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1333,17 +1333,21 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Flins tjärn (Flins tjärn), Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>561871</v>
+        <v>561876</v>
       </c>
       <c r="R7" t="n">
-        <v>6691026</v>
+        <v>6691009</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1375,7 +1379,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,7 +1389,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,7 +1419,7 @@
         <v>112390264</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1534,10 +1538,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112390327</v>
+        <v>112389916</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1569,7 +1573,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1584,10 +1588,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>561884</v>
+        <v>561846</v>
       </c>
       <c r="R9" t="n">
-        <v>6691037</v>
+        <v>6690958</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1619,7 +1623,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1629,7 +1633,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1656,10 +1660,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112389902</v>
+        <v>112390234</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1691,7 +1695,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1701,10 +1710,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>561814</v>
+        <v>561861</v>
       </c>
       <c r="R10" t="n">
-        <v>6690955</v>
+        <v>6690936</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1736,7 +1745,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1746,7 +1755,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1773,10 +1782,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112390174</v>
+        <v>112389960</v>
       </c>
       <c r="B11" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1808,7 +1817,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1823,10 +1832,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>561855</v>
+        <v>561848</v>
       </c>
       <c r="R11" t="n">
-        <v>6690952</v>
+        <v>6690913</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1858,7 +1867,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1868,7 +1877,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1898,7 +1907,7 @@
         <v>112390121</v>
       </c>
       <c r="B12" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2017,10 +2026,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112389916</v>
+        <v>112390254</v>
       </c>
       <c r="B13" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2052,7 +2061,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2067,10 +2076,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>561846</v>
+        <v>561842</v>
       </c>
       <c r="R13" t="n">
-        <v>6690958</v>
+        <v>6690941</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2102,7 +2111,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2112,7 +2121,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2139,10 +2148,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112389685</v>
+        <v>112389911</v>
       </c>
       <c r="B14" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2174,7 +2183,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2189,10 +2198,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>561785</v>
+        <v>561817</v>
       </c>
       <c r="R14" t="n">
-        <v>6690954</v>
+        <v>6690950</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2224,7 +2233,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2234,7 +2243,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2264,7 +2273,7 @@
         <v>112390051</v>
       </c>
       <c r="B15" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2383,10 +2392,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112389708</v>
+        <v>112389902</v>
       </c>
       <c r="B16" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2418,12 +2427,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2433,10 +2437,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>561816</v>
+        <v>561814</v>
       </c>
       <c r="R16" t="n">
-        <v>6690975</v>
+        <v>6690955</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2468,7 +2472,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2478,7 +2482,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2505,10 +2509,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112389911</v>
+        <v>112389311</v>
       </c>
       <c r="B17" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2540,7 +2544,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2555,10 +2559,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>561817</v>
+        <v>561902</v>
       </c>
       <c r="R17" t="n">
-        <v>6690950</v>
+        <v>6691074</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2590,7 +2594,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2600,7 +2604,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2627,10 +2631,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112389341</v>
+        <v>112389777</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2662,7 +2666,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2670,21 +2674,17 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Flins tjärn (Flins tjärn), Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>561876</v>
+        <v>561812</v>
       </c>
       <c r="R18" t="n">
-        <v>6691009</v>
+        <v>6690979</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2753,10 +2753,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112389734</v>
+        <v>112389708</v>
       </c>
       <c r="B19" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>561844</v>
+        <v>561816</v>
       </c>
       <c r="R19" t="n">
-        <v>6690980</v>
+        <v>6690975</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2875,10 +2875,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112389311</v>
+        <v>112389685</v>
       </c>
       <c r="B20" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>561902</v>
+        <v>561785</v>
       </c>
       <c r="R20" t="n">
-        <v>6691074</v>
+        <v>6690954</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3000,7 +3000,7 @@
         <v>112389621</v>
       </c>
       <c r="B21" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>

--- a/artfynd/A 37654-2023.xlsx
+++ b/artfynd/A 37654-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112389891</v>
+        <v>112389708</v>
       </c>
       <c r="B2" t="n">
         <v>96735</v>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>561810</v>
+        <v>561816</v>
       </c>
       <c r="R2" t="n">
-        <v>6690949</v>
+        <v>6690975</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112390327</v>
+        <v>112389902</v>
       </c>
       <c r="B3" t="n">
         <v>96735</v>
@@ -837,12 +837,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -852,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>561884</v>
+        <v>561814</v>
       </c>
       <c r="R3" t="n">
-        <v>6691037</v>
+        <v>6690955</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -887,7 +882,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -897,7 +892,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,7 +919,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112390174</v>
+        <v>112389916</v>
       </c>
       <c r="B4" t="n">
         <v>96735</v>
@@ -959,7 +954,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -974,10 +969,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>561855</v>
+        <v>561846</v>
       </c>
       <c r="R4" t="n">
-        <v>6690952</v>
+        <v>6690958</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1009,7 +1004,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1019,7 +1014,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,7 +1041,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112389445</v>
+        <v>112389911</v>
       </c>
       <c r="B5" t="n">
         <v>96735</v>
@@ -1081,7 +1076,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1096,10 +1091,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>561871</v>
+        <v>561817</v>
       </c>
       <c r="R5" t="n">
-        <v>6691026</v>
+        <v>6690950</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1131,7 +1126,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1141,7 +1136,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,7 +1163,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112389734</v>
+        <v>112390234</v>
       </c>
       <c r="B6" t="n">
         <v>96735</v>
@@ -1203,7 +1198,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1218,10 +1213,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>561844</v>
+        <v>561861</v>
       </c>
       <c r="R6" t="n">
-        <v>6690980</v>
+        <v>6690936</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1253,7 +1248,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1263,7 +1258,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1290,7 +1285,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112389341</v>
+        <v>112390327</v>
       </c>
       <c r="B7" t="n">
         <v>96735</v>
@@ -1325,7 +1320,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1333,21 +1328,17 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Flins tjärn (Flins tjärn), Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>561876</v>
+        <v>561884</v>
       </c>
       <c r="R7" t="n">
-        <v>6691009</v>
+        <v>6691037</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1379,7 +1370,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1389,7 +1380,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1416,7 +1407,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112390264</v>
+        <v>112389445</v>
       </c>
       <c r="B8" t="n">
         <v>96735</v>
@@ -1451,7 +1442,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1466,10 +1457,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>561856</v>
+        <v>561871</v>
       </c>
       <c r="R8" t="n">
-        <v>6690974</v>
+        <v>6691026</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1501,7 +1492,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1511,7 +1502,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1538,7 +1529,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112389916</v>
+        <v>112389734</v>
       </c>
       <c r="B9" t="n">
         <v>96735</v>
@@ -1573,7 +1564,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1588,10 +1579,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>561846</v>
+        <v>561844</v>
       </c>
       <c r="R9" t="n">
-        <v>6690958</v>
+        <v>6690980</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1623,7 +1614,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1633,7 +1624,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1660,7 +1651,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112390234</v>
+        <v>112389960</v>
       </c>
       <c r="B10" t="n">
         <v>96735</v>
@@ -1695,7 +1686,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1710,10 +1701,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>561861</v>
+        <v>561848</v>
       </c>
       <c r="R10" t="n">
-        <v>6690936</v>
+        <v>6690913</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1745,7 +1736,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1755,7 +1746,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1782,7 +1773,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112389960</v>
+        <v>112390174</v>
       </c>
       <c r="B11" t="n">
         <v>96735</v>
@@ -1817,7 +1808,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1832,10 +1823,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>561848</v>
+        <v>561855</v>
       </c>
       <c r="R11" t="n">
-        <v>6690913</v>
+        <v>6690952</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1867,7 +1858,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1877,7 +1868,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1904,7 +1895,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112390121</v>
+        <v>112390051</v>
       </c>
       <c r="B12" t="n">
         <v>96735</v>
@@ -1954,10 +1945,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>561846</v>
+        <v>561841</v>
       </c>
       <c r="R12" t="n">
-        <v>6690845</v>
+        <v>6690916</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1989,7 +1980,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1999,7 +1990,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2026,7 +2017,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112390254</v>
+        <v>112389621</v>
       </c>
       <c r="B13" t="n">
         <v>96735</v>
@@ -2061,7 +2052,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2076,10 +2067,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>561842</v>
+        <v>561825</v>
       </c>
       <c r="R13" t="n">
-        <v>6690941</v>
+        <v>6690972</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2111,7 +2102,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2121,7 +2112,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2148,7 +2139,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112389911</v>
+        <v>112389685</v>
       </c>
       <c r="B14" t="n">
         <v>96735</v>
@@ -2183,7 +2174,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2198,10 +2189,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>561817</v>
+        <v>561785</v>
       </c>
       <c r="R14" t="n">
-        <v>6690950</v>
+        <v>6690954</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2233,7 +2224,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2243,7 +2234,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2270,7 +2261,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112390051</v>
+        <v>112389777</v>
       </c>
       <c r="B15" t="n">
         <v>96735</v>
@@ -2305,7 +2296,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2320,10 +2311,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>561841</v>
+        <v>561812</v>
       </c>
       <c r="R15" t="n">
-        <v>6690916</v>
+        <v>6690979</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2355,7 +2346,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2365,7 +2356,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2392,7 +2383,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112389902</v>
+        <v>112390264</v>
       </c>
       <c r="B16" t="n">
         <v>96735</v>
@@ -2427,7 +2418,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2437,10 +2433,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>561814</v>
+        <v>561856</v>
       </c>
       <c r="R16" t="n">
-        <v>6690955</v>
+        <v>6690974</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2472,7 +2468,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2482,7 +2478,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2631,7 +2627,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112389777</v>
+        <v>112389891</v>
       </c>
       <c r="B18" t="n">
         <v>96735</v>
@@ -2666,7 +2662,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2681,10 +2677,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>561812</v>
+        <v>561810</v>
       </c>
       <c r="R18" t="n">
-        <v>6690979</v>
+        <v>6690949</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2716,7 +2712,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2726,7 +2722,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2753,7 +2749,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112389708</v>
+        <v>112390121</v>
       </c>
       <c r="B19" t="n">
         <v>96735</v>
@@ -2788,7 +2784,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2803,10 +2799,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>561816</v>
+        <v>561846</v>
       </c>
       <c r="R19" t="n">
-        <v>6690975</v>
+        <v>6690845</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2838,7 +2834,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2848,7 +2844,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2875,7 +2871,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112389685</v>
+        <v>112389341</v>
       </c>
       <c r="B20" t="n">
         <v>96735</v>
@@ -2910,7 +2906,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2918,17 +2914,21 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Flins tjärn (Flins tjärn), Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>561785</v>
+        <v>561876</v>
       </c>
       <c r="R20" t="n">
-        <v>6690954</v>
+        <v>6691009</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2997,7 +2997,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112389621</v>
+        <v>112390254</v>
       </c>
       <c r="B21" t="n">
         <v>96735</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3047,10 +3047,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>561825</v>
+        <v>561842</v>
       </c>
       <c r="R21" t="n">
-        <v>6690972</v>
+        <v>6690941</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD21" t="b">
